--- a/mdata.xlsx
+++ b/mdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AProgramm\YandexDisk\Компьютер DESKTOP-DHDUC8V\AIprogramm\Actual\MGUU\СНО\Анализ данных на Python\05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DA35B7-5645-42FA-AB7C-5BF80B920523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ED3CA9-D17C-42AD-A8DC-25C208B36CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,8 +69,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -351,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,81 +373,169 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="1">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="1">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="1">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="1">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="1">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="1">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="1">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A10" s="1">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A11" s="1">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
+      <c r="C11" s="1">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A12" s="1">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="1">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A14" s="1">
         <v>35</v>
       </c>
-      <c r="C4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>300</v>
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A15" s="1">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A16" s="1">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>40000</v>
       </c>
     </row>
   </sheetData>
